--- a/acm/acm-config-server-repo/rules/drools-complaint-number-rules.xlsx
+++ b/acm/acm-config-server-repo/rules/drools-complaint-number-rules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dimitar.stefanovski\.arkcase\acm\rules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladimir.cherepnalko\.arkcase\acm\acm-config-server-repo\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C0F06D5B-9BD0-47CE-BF14-E4650B76B0D1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81085F09-1241-4A7B-B7FA-C66EA9D4F4E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8194" tabRatio="328" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="328" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>container?.folder?.cmisFolderId == null</t>
-  </si>
-  <si>
-    <t>setEcmFolderPath, '/Sites/acm/documentLibrary/Complaints/' + dateFormat('yyyyMMdd') + '_' + $complaint.getComplaintId()</t>
   </si>
   <si>
     <t>Set Due Date</t>
@@ -161,6 +158,9 @@
   </si>
   <si>
     <t>java.util.Calendar</t>
+  </si>
+  <si>
+    <t>setEcmFolderPath, '/Sites/acm/documentLibrary/Complaints/'</t>
   </si>
 </sst>
 </file>
@@ -833,21 +833,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.3828125"/>
-    <col min="2" max="2" width="24.3046875"/>
+    <col min="1" max="1" width="19.42578125"/>
+    <col min="2" max="2" width="24.28515625"/>
     <col min="3" max="3" width="34"/>
     <col min="4" max="4" width="108"/>
-    <col min="5" max="5" width="56.53515625"/>
-    <col min="6" max="1025" width="8.69140625"/>
+    <col min="5" max="5" width="31.42578125" customWidth="1"/>
+    <col min="6" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
@@ -857,27 +857,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="4" t="s">
@@ -887,7 +887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="4" t="s">
@@ -897,7 +897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="4" t="s">
@@ -907,7 +907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="4" t="s">
@@ -917,7 +917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="4" t="s">
@@ -927,7 +927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="4" t="s">
@@ -937,7 +937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="4" t="s">
@@ -947,7 +947,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="4" t="s">
@@ -957,7 +957,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="4" t="s">
@@ -967,17 +967,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="291.45" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" ht="300" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="8" t="s">
@@ -987,7 +987,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
@@ -995,7 +995,7 @@
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="4" t="s">
@@ -1005,7 +1005,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="4" t="s">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="D19" s="10"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="11" t="s">
@@ -1023,7 +1023,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>21</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="17" t="s">
         <v>25</v>
@@ -1049,7 +1049,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="17" t="s">
         <v>28</v>
@@ -1058,76 +1058,76 @@
         <v>29</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="D24" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -1135,7 +1135,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1145,9 +1145,9 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.69140625"/>
+    <col min="1" max="1025" width="8.7109375"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1161,9 +1161,9 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.69140625"/>
+    <col min="1" max="1025" width="8.7109375"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
